--- a/MainTop/07.07.2025 Таня Озон/print_56days_print_sorted.xlsx
+++ b/MainTop/07.07.2025 Таня Озон/print_56days_print_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\07.07.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F834E4C3-385D-4911-BE85-0433E62F252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871609C1-4944-4D18-871A-BB38E1FC337F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="267">
   <si>
     <t>Артикул</t>
   </si>
@@ -788,12 +788,6 @@
   </si>
   <si>
     <t>д19</t>
-  </si>
-  <si>
-    <t>Термонаклейка Сердечки термозаплатка</t>
-  </si>
-  <si>
-    <t>б46</t>
   </si>
   <si>
     <t>Термонаклейка Мэрилин Монро геометрия</t>
@@ -1253,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U123"/>
+  <dimension ref="A1:U122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="M115" sqref="M115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q17" s="13">
         <v>0</v>
@@ -2418,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="13">
         <v>0</v>
@@ -2465,7 +2459,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K19" s="13">
         <v>0</v>
@@ -3044,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9">
         <v>0</v>
@@ -4350,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K48" s="10">
         <v>0</v>
@@ -5396,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M64" s="10">
         <v>0</v>
@@ -5792,7 +5786,7 @@
         <v>2</v>
       </c>
       <c r="N70" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O70" s="10">
         <v>0</v>
@@ -8872,130 +8866,130 @@
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B118" s="11">
-        <v>1</v>
-      </c>
-      <c r="C118" s="11">
-        <v>1</v>
-      </c>
-      <c r="D118" s="11">
-        <v>0</v>
-      </c>
-      <c r="E118" s="11">
-        <v>0</v>
-      </c>
-      <c r="F118" s="11">
-        <v>0</v>
-      </c>
-      <c r="G118" s="11">
-        <v>0</v>
-      </c>
-      <c r="H118" s="11">
-        <v>0</v>
-      </c>
-      <c r="I118" s="11">
-        <v>0</v>
-      </c>
-      <c r="J118" s="11">
-        <v>0</v>
-      </c>
-      <c r="K118" s="11">
-        <v>0</v>
-      </c>
-      <c r="L118" s="11">
-        <v>0</v>
-      </c>
-      <c r="M118" s="11">
-        <v>0</v>
-      </c>
-      <c r="N118" s="11">
-        <v>2</v>
-      </c>
-      <c r="O118" s="11">
-        <v>0</v>
-      </c>
-      <c r="P118" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q118" s="11">
-        <v>0</v>
-      </c>
-      <c r="R118" s="11">
-        <v>4</v>
-      </c>
-      <c r="S118" s="11" t="s">
+      <c r="B118" s="14">
+        <v>0</v>
+      </c>
+      <c r="C118" s="14">
+        <v>2</v>
+      </c>
+      <c r="D118" s="14">
+        <v>0</v>
+      </c>
+      <c r="E118" s="14">
+        <v>0</v>
+      </c>
+      <c r="F118" s="14">
+        <v>4</v>
+      </c>
+      <c r="G118" s="14">
+        <v>0</v>
+      </c>
+      <c r="H118" s="14">
+        <v>0</v>
+      </c>
+      <c r="I118" s="14">
+        <v>0</v>
+      </c>
+      <c r="J118" s="14">
+        <v>0</v>
+      </c>
+      <c r="K118" s="14">
+        <v>0</v>
+      </c>
+      <c r="L118" s="14">
+        <v>0</v>
+      </c>
+      <c r="M118" s="14">
+        <v>2</v>
+      </c>
+      <c r="N118" s="14">
+        <v>8</v>
+      </c>
+      <c r="O118" s="14">
+        <v>0</v>
+      </c>
+      <c r="P118" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="14">
+        <v>0</v>
+      </c>
+      <c r="R118" s="14">
+        <v>16</v>
+      </c>
+      <c r="S118" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="T118" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="U118" s="4" t="s">
+      <c r="T118" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="U118" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B119" s="14">
+        <v>1</v>
+      </c>
+      <c r="C119" s="14">
+        <v>0</v>
+      </c>
+      <c r="D119" s="14">
+        <v>0</v>
+      </c>
+      <c r="E119" s="14">
+        <v>0</v>
+      </c>
+      <c r="F119" s="14">
+        <v>0</v>
+      </c>
+      <c r="G119" s="14">
+        <v>0</v>
+      </c>
+      <c r="H119" s="14">
+        <v>0</v>
+      </c>
+      <c r="I119" s="14">
+        <v>2</v>
+      </c>
+      <c r="J119" s="14">
+        <v>0</v>
+      </c>
+      <c r="K119" s="14">
+        <v>0</v>
+      </c>
+      <c r="L119" s="14">
+        <v>0</v>
+      </c>
+      <c r="M119" s="14">
+        <v>0</v>
+      </c>
+      <c r="N119" s="14">
+        <v>7</v>
+      </c>
+      <c r="O119" s="14">
+        <v>0</v>
+      </c>
+      <c r="P119" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="14">
+        <v>2</v>
+      </c>
+      <c r="R119" s="14">
+        <v>12</v>
+      </c>
+      <c r="S119" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="T119" s="14" t="s">
         <v>258</v>
-      </c>
-      <c r="B119" s="14">
-        <v>0</v>
-      </c>
-      <c r="C119" s="14">
-        <v>2</v>
-      </c>
-      <c r="D119" s="14">
-        <v>0</v>
-      </c>
-      <c r="E119" s="14">
-        <v>0</v>
-      </c>
-      <c r="F119" s="14">
-        <v>4</v>
-      </c>
-      <c r="G119" s="14">
-        <v>0</v>
-      </c>
-      <c r="H119" s="14">
-        <v>0</v>
-      </c>
-      <c r="I119" s="14">
-        <v>0</v>
-      </c>
-      <c r="J119" s="14">
-        <v>0</v>
-      </c>
-      <c r="K119" s="14">
-        <v>0</v>
-      </c>
-      <c r="L119" s="14">
-        <v>0</v>
-      </c>
-      <c r="M119" s="14">
-        <v>2</v>
-      </c>
-      <c r="N119" s="14">
-        <v>8</v>
-      </c>
-      <c r="O119" s="14">
-        <v>0</v>
-      </c>
-      <c r="P119" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q119" s="14">
-        <v>0</v>
-      </c>
-      <c r="R119" s="14">
-        <v>16</v>
-      </c>
-      <c r="S119" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="T119" s="14" t="s">
-        <v>260</v>
       </c>
       <c r="U119" s="7" t="s">
         <v>24</v>
@@ -9018,16 +9012,16 @@
         <v>0</v>
       </c>
       <c r="F120" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G120" s="14">
         <v>0</v>
       </c>
       <c r="H120" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I120" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J120" s="14">
         <v>0</v>
@@ -9036,13 +9030,13 @@
         <v>0</v>
       </c>
       <c r="L120" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M120" s="14">
         <v>0</v>
       </c>
       <c r="N120" s="14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O120" s="14">
         <v>0</v>
@@ -9051,16 +9045,16 @@
         <v>0</v>
       </c>
       <c r="Q120" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R120" s="14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S120" s="14" t="s">
         <v>262</v>
       </c>
       <c r="T120" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="U120" s="7" t="s">
         <v>24</v>
@@ -9071,10 +9065,10 @@
         <v>263</v>
       </c>
       <c r="B121" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D121" s="14">
         <v>0</v>
@@ -9083,13 +9077,13 @@
         <v>0</v>
       </c>
       <c r="F121" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G121" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H121" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I121" s="14">
         <v>0</v>
@@ -9101,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="L121" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M121" s="14">
         <v>0</v>
@@ -9113,19 +9107,19 @@
         <v>0</v>
       </c>
       <c r="P121" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q121" s="14">
         <v>0</v>
       </c>
       <c r="R121" s="14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S121" s="14" t="s">
         <v>264</v>
       </c>
       <c r="T121" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="U121" s="7" t="s">
         <v>24</v>
@@ -9139,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D122" s="14">
         <v>0</v>
@@ -9151,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H122" s="14">
         <v>0</v>
@@ -9172,92 +9166,27 @@
         <v>0</v>
       </c>
       <c r="N122" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O122" s="14">
         <v>0</v>
       </c>
       <c r="P122" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q122" s="14">
         <v>0</v>
       </c>
       <c r="R122" s="14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S122" s="14" t="s">
         <v>266</v>
       </c>
       <c r="T122" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="U122" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="B123" s="14">
-        <v>0</v>
-      </c>
-      <c r="C123" s="14">
-        <v>0</v>
-      </c>
-      <c r="D123" s="14">
-        <v>0</v>
-      </c>
-      <c r="E123" s="14">
-        <v>0</v>
-      </c>
-      <c r="F123" s="14">
-        <v>0</v>
-      </c>
-      <c r="G123" s="14">
-        <v>2</v>
-      </c>
-      <c r="H123" s="14">
-        <v>0</v>
-      </c>
-      <c r="I123" s="14">
-        <v>0</v>
-      </c>
-      <c r="J123" s="14">
-        <v>0</v>
-      </c>
-      <c r="K123" s="14">
-        <v>0</v>
-      </c>
-      <c r="L123" s="14">
-        <v>0</v>
-      </c>
-      <c r="M123" s="14">
-        <v>0</v>
-      </c>
-      <c r="N123" s="14">
-        <v>2</v>
-      </c>
-      <c r="O123" s="14">
-        <v>0</v>
-      </c>
-      <c r="P123" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q123" s="14">
-        <v>0</v>
-      </c>
-      <c r="R123" s="14">
-        <v>4</v>
-      </c>
-      <c r="S123" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="T123" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="U123" s="7" t="s">
         <v>24</v>
       </c>
     </row>

--- a/MainTop/07.07.2025 Таня Озон/print_56days_print_sorted.xlsx
+++ b/MainTop/07.07.2025 Таня Озон/print_56days_print_sorted.xlsx
@@ -5,17 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\07.07.2025 Таня Озон\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\07.07.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F834E4C3-385D-4911-BE85-0433E62F252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE3C8E7-1EA2-4343-B19B-599AD63DE162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -931,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -951,6 +962,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1253,15 +1265,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U123"/>
+  <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="M115" sqref="M115"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="17" width="3.85546875" customWidth="1"/>
     <col min="18" max="20" width="4.85546875" customWidth="1"/>
   </cols>
@@ -9261,7 +9273,78 @@
         <v>24</v>
       </c>
     </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B124" s="15">
+        <f>SUM(B2:B123)</f>
+        <v>101</v>
+      </c>
+      <c r="C124" s="15">
+        <f t="shared" ref="C124:R124" si="0">SUM(C2:C123)</f>
+        <v>100</v>
+      </c>
+      <c r="D124" s="15">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="E124" s="15">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="F124" s="15">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="G124" s="15">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="H124" s="15">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
+      <c r="I124" s="15">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="J124" s="15">
+        <f t="shared" si="0"/>
+        <v>423</v>
+      </c>
+      <c r="K124" s="15">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="L124" s="15">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="M124" s="15">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="N124" s="15">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="O124" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="P124" s="15">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="Q124" s="15">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="R124" s="15">
+        <f t="shared" si="0"/>
+        <v>2486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>